--- a/Data/Excels/单一引用示例_SingleRefConfig.xlsx
+++ b/Data/Excels/单一引用示例_SingleRefConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B4DEF-E663-894F-AF96-82A44221F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE36A96-4606-C44C-85A7-179683D5F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="560" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
